--- a/data/outputs/OR/18.xlsx
+++ b/data/outputs/OR/18.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ61"/>
+  <dimension ref="A1:BR61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,6 +710,11 @@
       <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 68</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
         </is>
       </c>
     </row>
@@ -889,6 +894,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1098,6 +1104,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1307,6 +1314,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1524,6 +1532,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1725,6 +1734,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1926,6 +1936,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2135,6 +2146,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2344,6 +2356,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2561,6 +2574,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2762,6 +2776,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2939,6 +2954,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3156,6 +3172,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3365,6 +3382,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3574,6 +3592,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3779,6 +3798,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3988,6 +4008,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4197,6 +4218,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4406,6 +4428,11 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>617162</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4615,6 +4642,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4824,6 +4852,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5017,6 +5046,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5250,6 +5280,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5483,6 +5514,11 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr">
+        <is>
+          <t>1895838</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5712,6 +5748,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5937,6 +5974,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6170,6 +6208,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6407,6 +6446,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6640,6 +6680,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6873,6 +6914,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7114,6 +7156,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7291,6 +7334,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7492,6 +7536,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7701,6 +7746,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7902,6 +7948,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8107,6 +8154,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8308,6 +8356,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8517,6 +8566,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8726,6 +8776,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8935,6 +8986,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9144,6 +9196,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9321,6 +9374,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9526,6 +9580,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9731,6 +9786,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9940,6 +9996,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10149,6 +10206,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10358,6 +10416,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10571,6 +10630,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10776,6 +10836,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10985,6 +11046,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11186,6 +11248,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11363,6 +11426,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11560,6 +11624,11 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr">
+        <is>
+          <t>6490718</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11761,6 +11830,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11847,7 +11917,7 @@
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>Lara-Borrero, Jaime/0000-0003-3247-7519; </t>
+          <t>Lara-Borrero, Jaime/0000-0003-3247-7519;</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
@@ -11978,6 +12048,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12195,6 +12266,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12396,6 +12468,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12605,6 +12678,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12806,6 +12880,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13011,6 +13086,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13220,6 +13296,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
